--- a/control_software/Filter function meter/Template/Example of FF meter template.xlsx
+++ b/control_software/Filter function meter/Template/Example of FF meter template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\martin\WAC\WACsw - github\control_software\filter_function_meter\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\martin\WAC\WACsw - github\control_software\Filter function meter\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B45B965-0929-40F2-AFA8-64506E96DCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED17114A-0925-408D-909C-78F85E7358D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="435" windowWidth="22020" windowHeight="14550" xr2:uid="{B3798027-E95D-4306-B018-FE372260F1B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775" xr2:uid="{B3798027-E95D-4306-B018-FE372260F1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Signal frequency</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t xml:space="preserve">in collumn A, values of frequency in collumn B, and record </t>
+  </si>
+  <si>
+    <t>value (V)</t>
+  </si>
+  <si>
+    <t>unc (V)</t>
+  </si>
+  <si>
+    <t>Readings…............</t>
   </si>
 </sst>
 </file>
@@ -197,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -208,6 +217,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -223,6 +234,922 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> values measured at 1 kHz</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(List1!$D$10,List1!$D$12,List1!$D$14,List1!$D$16)</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(List1!$G$10,List1!$G$12,List1!$G$14,List1!$G$16)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA15-486C-8468-CC36BA9AC892}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1444243471"/>
+        <c:axId val="1444245391"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1444243471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444245391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1444245391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444243471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A121BA-5E5B-F8DC-CCD2-8F5456C501BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B5B30A-CEC2-4AE3-B0CF-7E425BD5247A}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:AI116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +1464,7 @@
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -547,7 +1474,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -561,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -575,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -583,21 +1510,21 @@
         <v>6</v>
       </c>
       <c r="E4" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -608,7 +1535,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -628,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -642,13 +1569,22 @@
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -658,99 +1594,289 @@
       <c r="C10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>1000000</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>1000</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>2000000</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>1000</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>3000000</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -1007,5 +2133,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/control_software/Filter function meter/Template/Example of FF meter template.xlsx
+++ b/control_software/Filter function meter/Template/Example of FF meter template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\martin\WAC\WACsw - github\control_software\Filter function meter\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED17114A-0925-408D-909C-78F85E7358D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9A72D-2A47-447B-ACDD-AD1F1935D6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775" xr2:uid="{B3798027-E95D-4306-B018-FE372260F1B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{B3798027-E95D-4306-B018-FE372260F1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1452,7 +1452,7 @@
   <dimension ref="A1:AI116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,6 +1726,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B14" s="8">

--- a/control_software/Filter function meter/Template/Example of FF meter template.xlsx
+++ b/control_software/Filter function meter/Template/Example of FF meter template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\martin\WAC\WACsw - github\control_software\Filter function meter\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB5A1DE-A3D3-4BB1-BA9E-E598082EDADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9EDFD76-41FF-4C52-BBCB-04AD7EFD1EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23970" windowHeight="14370" xr2:uid="{B3798027-E95D-4306-B018-FE372260F1B7}"/>
+    <workbookView xWindow="2685" yWindow="2235" windowWidth="17805" windowHeight="10290" xr2:uid="{B3798027-E95D-4306-B018-FE372260F1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Signal frequency</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>HP3458A</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -5315,16 +5318,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>92448</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>94970</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>397248</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>344579</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171170</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>649379</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5652,7 +5655,7 @@
   <dimension ref="A1:AJ1999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="D10:H21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5846,48 +5849,58 @@
         <f>B10</f>
         <v>10000</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="8">
+        <v>45638.867291666669</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="12">
+        <v>-1.693694603443</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1.2244894232060001E-4</v>
+      </c>
       <c r="I10" s="18">
         <f>IF(ISEVEN(ROW()),B10/1000,"")</f>
         <v>10</v>
       </c>
       <c r="J10" s="17" t="e">
         <f>IF(B10&gt;B11,E10*G10/G11,NA())</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K10" s="12">
-        <v>-6.4576916396619999E-2</v>
+        <v>-1.693062782288</v>
       </c>
       <c r="L10" s="12">
-        <v>-6.1558388173580003E-2</v>
+        <v>-1.693238139153</v>
       </c>
       <c r="M10" s="12">
-        <v>-6.1362534761429999E-2</v>
+        <v>-1.693436026573</v>
       </c>
       <c r="N10" s="12">
-        <v>-5.9963483363389997E-2</v>
+        <v>-1.6935094594960001</v>
       </c>
       <c r="O10" s="12">
-        <v>-5.7080112397670003E-2</v>
+        <v>-1.693641781807</v>
       </c>
       <c r="P10" s="12">
-        <v>-4.8210076987739998E-2</v>
+        <v>-1.693772554398</v>
       </c>
       <c r="Q10" s="9">
-        <v>-4.4330731034280001E-2</v>
+        <v>-1.6938751935959999</v>
       </c>
       <c r="R10" s="11">
-        <v>-3.3033009618520001E-2</v>
+        <v>-1.6940512657169999</v>
       </c>
       <c r="S10" s="12">
-        <v>-2.256765216589E-2</v>
+        <v>-1.6941480636599999</v>
       </c>
       <c r="T10" s="12">
-        <v>-2.3786555975679999E-2</v>
+        <v>-1.6942107677460001</v>
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
@@ -5915,11 +5928,21 @@
         <f t="shared" ref="C11:C74" si="0">B11</f>
         <v>1000</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="8">
+        <v>45638.867731481485</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="12">
+        <v>-1.6942984342580001</v>
+      </c>
+      <c r="H11" s="12">
+        <v>4.3287051619019999E-5</v>
+      </c>
       <c r="I11" s="18" t="str">
         <f t="shared" ref="I11:I12" si="1">IF(ISEVEN(ROW()),B11/1000,"")</f>
         <v/>
@@ -5929,34 +5952,34 @@
         <v>#N/A</v>
       </c>
       <c r="K11" s="12">
-        <v>-1.8481750041250002E-2</v>
+        <v>-1.694246888161</v>
       </c>
       <c r="L11" s="12">
-        <v>8.0376183614130001E-3</v>
+        <v>-1.6942647695540001</v>
       </c>
       <c r="M11" s="12">
-        <v>-2.0281689241529999E-2</v>
+        <v>-1.6942031383509999</v>
       </c>
       <c r="N11" s="12">
-        <v>-3.5037476569410003E-2</v>
+        <v>-1.694157958031</v>
       </c>
       <c r="O11" s="12">
-        <v>-5.3610943257809997E-2</v>
+        <v>-1.69415640831</v>
       </c>
       <c r="P11" s="12">
-        <v>-7.2013750672340004E-2</v>
+        <v>-1.6942203044890001</v>
       </c>
       <c r="Q11" s="12">
-        <v>-7.8909918665890005E-2</v>
+        <v>-1.6943058967589999</v>
       </c>
       <c r="R11" s="11">
-        <v>-7.8457526862620003E-2</v>
+        <v>-1.694393515587</v>
       </c>
       <c r="S11" s="12">
-        <v>-6.4419031143190003E-2</v>
+        <v>-1.6944704055790001</v>
       </c>
       <c r="T11" s="12">
-        <v>-5.6967325508590003E-2</v>
+        <v>-1.694565057755</v>
       </c>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
@@ -5984,48 +6007,58 @@
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="D12" s="8">
+        <v>45638.868159722224</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-1.694568181038</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2.4037977087259999E-5</v>
+      </c>
       <c r="I12" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J12" s="17" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K12" s="12">
-        <v>-5.204832553864E-2</v>
+        <v>-1.6946179866790001</v>
       </c>
       <c r="L12" s="12">
-        <v>-5.44750019908E-2</v>
+        <v>-1.69462120533</v>
       </c>
       <c r="M12" s="12">
-        <v>-5.6231345981360002E-2</v>
+        <v>-1.6945910453799999</v>
       </c>
       <c r="N12" s="12">
-        <v>-5.4909761995079999E-2</v>
+        <v>-1.6945368051530001</v>
       </c>
       <c r="O12" s="12">
-        <v>-5.3857233375310003E-2</v>
+        <v>-1.694498181343</v>
       </c>
       <c r="P12" s="12">
-        <v>-5.0292439758779998E-2</v>
+        <v>-1.694471716881</v>
       </c>
       <c r="Q12" s="12">
-        <v>-4.5585300773380001E-2</v>
+        <v>-1.694502472878</v>
       </c>
       <c r="R12" s="11">
-        <v>-4.1622564196590002E-2</v>
+        <v>-1.6945098638530001</v>
       </c>
       <c r="S12" s="12">
-        <v>-2.7572656050319999E-2</v>
+        <v>-1.6946213245390001</v>
       </c>
       <c r="T12" s="12">
-        <v>-3.0835200101139999E-2</v>
+        <v>-1.6947112083439999</v>
       </c>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
@@ -6045,11 +6078,21 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="D13" s="8">
+        <v>45638.868414351855</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="12">
+        <v>-1.6948587894439999</v>
+      </c>
+      <c r="H13" s="12">
+        <v>2.701218669661E-5</v>
+      </c>
       <c r="I13" s="18" t="str">
         <f t="shared" ref="I13:I76" si="3">IF(ISEVEN(ROW()),B13/1000,"")</f>
         <v/>
@@ -6059,34 +6102,34 @@
         <v>#N/A</v>
       </c>
       <c r="K13" s="12">
-        <v>-3.8672883063549997E-2</v>
+        <v>-1.6948082447049999</v>
       </c>
       <c r="L13" s="12">
-        <v>-4.039815813303E-2</v>
+        <v>-1.694924592972</v>
       </c>
       <c r="M13" s="12">
-        <v>-3.6857448518280003E-2</v>
+        <v>-1.6949737071990001</v>
       </c>
       <c r="N13" s="12">
-        <v>-3.5085290670389999E-2</v>
+        <v>-1.694981813431</v>
       </c>
       <c r="O13" s="12">
-        <v>-3.275098651648E-2</v>
+        <v>-1.6948471069340001</v>
       </c>
       <c r="P13" s="12">
-        <v>-3.3421199768779997E-2</v>
+        <v>-1.6948418617250001</v>
       </c>
       <c r="Q13" s="12">
-        <v>-3.3962815999980002E-2</v>
+        <v>-1.6947444677350001</v>
       </c>
       <c r="R13" s="11">
-        <v>-3.89613173902E-2</v>
+        <v>-1.694740772247</v>
       </c>
       <c r="S13" s="12">
-        <v>-5.9888578951360003E-2</v>
+        <v>-1.6948239803309999</v>
       </c>
       <c r="T13" s="12">
-        <v>-5.6298218667510003E-2</v>
+        <v>-1.6949013471600001</v>
       </c>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
@@ -6106,48 +6149,58 @@
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="D14" s="8">
+        <v>45638.868842592594</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="12">
+        <v>-1.6951008915900001</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1.787841251039E-5</v>
+      </c>
       <c r="I14" s="18">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J14" s="17" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K14" s="12">
-        <v>-5.8567371219399998E-2</v>
+        <v>-1.695010781288</v>
       </c>
       <c r="L14" s="12">
-        <v>-6.043149530888E-2</v>
+        <v>-1.6951072216030001</v>
       </c>
       <c r="M14" s="12">
-        <v>-5.3964227437969997E-2</v>
+        <v>-1.695170283318</v>
       </c>
       <c r="N14" s="12">
-        <v>-4.6396840363739998E-2</v>
+        <v>-1.6951602697370001</v>
       </c>
       <c r="O14" s="12">
-        <v>-4.2893495410680001E-2</v>
+        <v>-1.6951638460159999</v>
       </c>
       <c r="P14" s="12">
-        <v>-3.6631189286709998E-2</v>
+        <v>-1.695112705231</v>
       </c>
       <c r="Q14" s="12">
-        <v>-3.4129176288839998E-2</v>
+        <v>-1.6950497627259999</v>
       </c>
       <c r="R14" s="11">
-        <v>-3.077773377299E-2</v>
+        <v>-1.695036053658</v>
       </c>
       <c r="S14" s="12">
-        <v>-5.7101260870699999E-2</v>
+        <v>-1.6950731277469999</v>
       </c>
       <c r="T14" s="12">
-        <v>-4.7766823321579999E-2</v>
+        <v>-1.6951248645779999</v>
       </c>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
@@ -6167,11 +6220,21 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="D15" s="8">
+        <v>45638.869270833333</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="12">
+        <v>-1.695297598839</v>
+      </c>
+      <c r="H15" s="12">
+        <v>2.7030564385130001E-5</v>
+      </c>
       <c r="I15" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6181,34 +6244,34 @@
         <v>#N/A</v>
       </c>
       <c r="K15" s="12">
-        <v>-4.3327562510970002E-2</v>
+        <v>-1.695212006569</v>
       </c>
       <c r="L15" s="12">
-        <v>-4.207770898938E-2</v>
+        <v>-1.6953321695329999</v>
       </c>
       <c r="M15" s="12">
-        <v>-4.4634431600569999E-2</v>
+        <v>-1.6954143047329999</v>
       </c>
       <c r="N15" s="12">
-        <v>-4.6940267086030003E-2</v>
+        <v>-1.69541478157</v>
       </c>
       <c r="O15" s="12">
-        <v>-4.9305357038970002E-2</v>
+        <v>-1.69536626339</v>
       </c>
       <c r="P15" s="12">
-        <v>-5.1706481724979998E-2</v>
+        <v>-1.6953303813930001</v>
       </c>
       <c r="Q15" s="12">
-        <v>-5.2684154361490002E-2</v>
+        <v>-1.6952613592150001</v>
       </c>
       <c r="R15" s="11">
-        <v>-5.3688354790210002E-2</v>
+        <v>-1.695180892944</v>
       </c>
       <c r="S15" s="12">
-        <v>-5.616617947817E-2</v>
+        <v>-1.695215582848</v>
       </c>
       <c r="T15" s="12">
-        <v>-5.1934126764539998E-2</v>
+        <v>-1.6952482461930001</v>
       </c>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
@@ -6228,48 +6291,58 @@
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="D16" s="8">
+        <v>45638.869710648149</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="12">
+        <v>-1.6955108761790001</v>
+      </c>
+      <c r="H16" s="12">
+        <v>3.104198327892E-5</v>
+      </c>
       <c r="I16" s="18">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="J16" s="17" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K16" s="12">
-        <v>-4.595948010683E-2</v>
+        <v>-1.695322871208</v>
       </c>
       <c r="L16" s="12">
-        <v>-4.6821270138030002E-2</v>
+        <v>-1.695373415947</v>
       </c>
       <c r="M16" s="12">
-        <v>-4.7730762511489999E-2</v>
+        <v>-1.695498108864</v>
       </c>
       <c r="N16" s="12">
-        <v>-5.1110286265609997E-2</v>
+        <v>-1.6955516338350001</v>
       </c>
       <c r="O16" s="12">
-        <v>-5.0676818937059998E-2</v>
+        <v>-1.6956192255019999</v>
       </c>
       <c r="P16" s="12">
-        <v>-5.0806939601899997E-2</v>
+        <v>-1.695605516434</v>
       </c>
       <c r="Q16" s="12">
-        <v>-5.0886325538159999E-2</v>
+        <v>-1.6956051588059999</v>
       </c>
       <c r="R16" s="11">
-        <v>-4.49976362288E-2</v>
+        <v>-1.6955375671390001</v>
       </c>
       <c r="S16" s="12">
-        <v>-5.512585490942E-2</v>
+        <v>-1.6954953670499999</v>
       </c>
       <c r="T16" s="12">
-        <v>-5.2927803248170001E-2</v>
+        <v>-1.695499897003</v>
       </c>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
